--- a/biology/Médecine/Paroi_abdominale/Paroi_abdominale.xlsx
+++ b/biology/Médecine/Paroi_abdominale/Paroi_abdominale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En anatomie, la paroi abdominale représente les limites de la cavité abdominale. La paroi abdominale est divisée en parois antérolatérale et postérieure[1].
-Il existe un ensemble commun de couches recouvrant et formant toutes les parois : la plus profonde étant le péritoine viscéral, qui recouvre de nombreux organes abdominaux (la plupart des gros et petits intestins, par exemple), et le péritoine pariétal - qui recouvre les viscères péritoine en dessous, la graisse extrapéritonéale, le fascia transversalis, l'aponévrose interne et externe oblique et transversale de l'abdomen et une couche de fascia, qui porte des noms différents selon ce qu'elle recouvre (par exemple, transversalis, psoas fascia)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anatomie, la paroi abdominale représente les limites de la cavité abdominale. La paroi abdominale est divisée en parois antérolatérale et postérieure.
+Il existe un ensemble commun de couches recouvrant et formant toutes les parois : la plus profonde étant le péritoine viscéral, qui recouvre de nombreux organes abdominaux (la plupart des gros et petits intestins, par exemple), et le péritoine pariétal - qui recouvre les viscères péritoine en dessous, la graisse extrapéritonéale, le fascia transversalis, l'aponévrose interne et externe oblique et transversale de l'abdomen et une couche de fascia, qui porte des noms différents selon ce qu'elle recouvre (par exemple, transversalis, psoas fascia).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le contour de la paroi abdominale est à peu près hexagonal. Son bord supérieur est délimité par les marges côtières, les bords latéraux par les lignes médio-axillaires et les bords inférieurs délimités par la moitié antérieure de la crête iliaque, les ligaments inguinaux, la crête pubienne et la symphyse pubienne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le contour de la paroi abdominale est à peu près hexagonal. Son bord supérieur est délimité par les marges côtières, les bords latéraux par les lignes médio-axillaires et les bords inférieurs délimités par la moitié antérieure de la crête iliaque, les ligaments inguinaux, la crête pubienne et la symphyse pubienne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Couches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En anatomie humaine, les couches de la paroi abdominale antérolatérale sont (du superficiel au profond)[1],[2] :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En anatomie humaine, les couches de la paroi abdominale antérolatérale sont (du superficiel au profond), :  
 Peau
 Tissu sous-cutané
 Fascia
@@ -588,9 +604,11 @@
           <t>Surface intérieure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La surface contient plusieurs ligaments séparés par des fosses[4] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface contient plusieurs ligaments séparés par des fosses : 
 </t>
         </is>
       </c>
